--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 7.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\Ung_Dung_On_Tap_Ly_Thuyet\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CAABD-7076-4FFE-B747-6EDB7A66BF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A5062-3F0D-4D63-8F9A-8F7CC295CBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 7.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\Ung_Dung_On_Tap_Ly_Thuyet\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A5062-3F0D-4D63-8F9A-8F7CC295CBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9DB11-ED86-48D5-80AA-F37E1062A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -43,23 +43,279 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Yếu tố nào vừa là mục tiêu vừa là động lực của công nghiệp hóa, hiện đại hóa?</t>
+  </si>
+  <si>
+    <t>Con người</t>
+  </si>
+  <si>
+    <t>Mở rộng quan hệ kinh tế quốc tế</t>
+  </si>
+  <si>
+    <t>Khoa học công nghệ</t>
+  </si>
+  <si>
+    <t>Hiệu quả kinh tế – xã hội</t>
+  </si>
+  <si>
+    <t>Hôn nhân tự nguyện, tiến bộ là hôn nhân được xây dựng trên chủ yếu dựa trên cơ sở nào?</t>
+  </si>
+  <si>
+    <t>Quyền tự do kết hôn và ly hôn</t>
+  </si>
+  <si>
+    <t>Tình yêu chân chính</t>
+  </si>
+  <si>
+    <t>Tình cảm nam nữ</t>
+  </si>
+  <si>
+    <t>Kinh tế</t>
+  </si>
+  <si>
+    <t>Để thực hiên các quan hệ cơ bản nhất trong gia đình mới XHCN ở Việt Nam cần phải tuân thủ các nguyên tắc gì?</t>
+  </si>
+  <si>
+    <t>Một trong những khuynh hướng tiêu cực trong quan hệ tình yêu trong lứa tuổi thanh niên ở nước ta hiện nay là:</t>
+  </si>
+  <si>
+    <t>Tác phẩm “Nguồn gốc của gia đình, của chế độ tư hữu và của Nhà nước” là của ai?</t>
+  </si>
+  <si>
+    <t>Đạo lý làm người</t>
+  </si>
+  <si>
+    <t>Cùng có lợi</t>
+  </si>
+  <si>
+    <t>Thỏa mãn những nhu cầu tâm sinh lý</t>
+  </si>
+  <si>
+    <t>Bình đẳng, yêu thương và chia sẻ</t>
+  </si>
+  <si>
+    <t>Ly hôn</t>
+  </si>
+  <si>
+    <t>Sống thử</t>
+  </si>
+  <si>
+    <t>Bạo hành gia đình</t>
+  </si>
+  <si>
+    <t>Đa thê</t>
+  </si>
+  <si>
+    <t>C.Mác</t>
+  </si>
+  <si>
+    <t>Lênin</t>
+  </si>
+  <si>
+    <t>Ph.Ăngghen</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Nội dung cơ bản và trực tiếp để xây dựng gia đình ở Việt Nam hiện nay là gì?</t>
+  </si>
+  <si>
+    <t>Phát triển kinh tế - xã hội</t>
+  </si>
+  <si>
+    <t>Xây dựng gia đình no ấm, bình đẳng, tiến bộ và hạnh phúc</t>
+  </si>
+  <si>
+    <t>Nâng cao trình độ dân trí cho nhân dân lao động</t>
+  </si>
+  <si>
+    <t>Giải phóng phụ nữ</t>
+  </si>
+  <si>
+    <t>Điền từ còn thiếu vào chỗ trống: “Gia đình là một hình thức cộng đồng xã hội ………, được hình thành, duy trì và củng cố chủ yếu dựa trên cơ sở hôn nhân và huyết thống và quan hệ nuôi dưỡng, cùng với những quy định về quyền và nghĩa vụ của các thành viên trong gia đình”</t>
+  </si>
+  <si>
+    <t>Đặc biệt</t>
+  </si>
+  <si>
+    <t>Có một không hai</t>
+  </si>
+  <si>
+    <t>Đơn nhất</t>
+  </si>
+  <si>
+    <t>Duy nhất</t>
+  </si>
+  <si>
+    <t>Chức năng nào của gia đình có ảnh hưởng lâu dài và toàn diện đến cuộc đời của mỗi thành viên trong gia đình?</t>
+  </si>
+  <si>
+    <t>Trong thời kỳ quá độ lên CNXH, thực hiện chế độ hôn nhân một vợ một chồng là thực hiện sự giải phóng đối với:</t>
+  </si>
+  <si>
+    <t>Chức năng tái sản xuất ra con người</t>
+  </si>
+  <si>
+    <t>Chức năng nuôi dưỡng, giáo dục</t>
+  </si>
+  <si>
+    <t>Chức năng kinh tế và tổ chức tiêu dùng</t>
+  </si>
+  <si>
+    <t>Chức năng thỏa mãn nhu cầu tâm sinh lý, duy trì tình cảm gia đình</t>
+  </si>
+  <si>
+    <t>Phụ nữ</t>
+  </si>
+  <si>
+    <t>Nông dân</t>
+  </si>
+  <si>
+    <t>Đàn ông</t>
+  </si>
+  <si>
+    <t>Công nhân</t>
+  </si>
+  <si>
+    <t>Quan hệ cơ bản đặc trưng của gia đình là?</t>
+  </si>
+  <si>
+    <t>Quan hệ huyết thống</t>
+  </si>
+  <si>
+    <t>Quan hệ nuôi dưỡng</t>
+  </si>
+  <si>
+    <t>Quan hệ hôn nhân</t>
+  </si>
+  <si>
+    <t>Tình yêu</t>
+  </si>
+  <si>
+    <t>Gia đình là?</t>
+  </si>
+  <si>
+    <t>Tế bào xã hội</t>
+  </si>
+  <si>
+    <t>Con đẻ của chế độ phân chia giai cấp</t>
+  </si>
+  <si>
+    <t>Trụ cột của xã hội</t>
+  </si>
+  <si>
+    <t>Sản phẩm của xã hội</t>
+  </si>
+  <si>
+    <t>Đâu không phải là cơ sở để xây dựng gia đình trong thời kỳ quá độ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cơ sở kinh tế - xã hội</t>
+  </si>
+  <si>
+    <t>Cơ sở chính trị - xã hội</t>
+  </si>
+  <si>
+    <t>Cơ sở văn hóa</t>
+  </si>
+  <si>
+    <t>Cơ sở tổ chức - xã hội</t>
+  </si>
+  <si>
+    <t>Chức năng đặc thù của gia đình là chức năng nào?</t>
+  </si>
+  <si>
+    <t>Nuôi dưỡng, giáo dục</t>
+  </si>
+  <si>
+    <t>Tái sản xuất ra con người</t>
+  </si>
+  <si>
+    <t>Kinh tế và tổ chức tiêu dùng</t>
+  </si>
+  <si>
+    <t>Thỏa mãn nhu cầu tâm sinh lý, duy trì tình cảm gia đình</t>
+  </si>
+  <si>
+    <t>Trong thời kỳ quá độ lên CNXH, quy mô kết cấu gia đình thay đổi như thế nào?</t>
+  </si>
+  <si>
+    <t>Quy mô gia đình ngày càng được mở rộng với nhiều thế hệ sống chung.</t>
+  </si>
+  <si>
+    <t>Gia đình đơn dần thay thế cho gia đình truyền thống</t>
+  </si>
+  <si>
+    <t>Các thành viên trong gia đình ngày càng gắn kết</t>
+  </si>
+  <si>
+    <t>Gia tăng sự phân biệt nam nữ</t>
+  </si>
+  <si>
+    <t>Chức năng nào được coi là chức năng cơ bản và riêng có của gia đình?</t>
+  </si>
+  <si>
+    <t>Tổ chức đời sống gia đình</t>
+  </si>
+  <si>
+    <t>Giáo dục gia đình</t>
+  </si>
+  <si>
+    <t>Thỏa mãn tâm sinh lý</t>
+  </si>
+  <si>
+    <t>Quan hệ nào là cơ sở, nền tảng hình thành nên các mối quan hệ khác trong gia đình?</t>
+  </si>
+  <si>
+    <t>Quan hệ quần tụ trong một không gian sinh tồn</t>
+  </si>
+  <si>
+    <t>Chức năng nuôi dưỡng giáo dục thể hiện:</t>
+  </si>
+  <si>
+    <t>Tình cảm thiêng liêng trách nhiệm của cha mẹ với con cái đồng thời thể hiện trách nhiệm của gia đình với xã hội - Hình thành nhân cách đạo đức lối sống của mỗi người</t>
+  </si>
+  <si>
+    <t>Chức năng đặc thù của gia đình đáp ứng nhu cầu tâm sinh lý tự nhiên của con người đáp ứng nhu cầu duy trì nòi giống của gia đình</t>
+  </si>
+  <si>
+    <t>Gia đình là cầu nối giữa cá nhân với xã hội - Gia đình là cộng đồng xã hội đầu tiên đáp ứng nhu cầu quan hệ xã hội của mỗi cá nhân là môi trường đầu tiên giúp cá nhân học và thực hiện quan hệ xã hội</t>
+  </si>
+  <si>
+    <t>Hôn nhân tự nguyện, tiến bộ là hôn nhân được xây dựng chủ yếu dựa trên cơ sở nào?</t>
+  </si>
+  <si>
+    <t>Tình cảm nam – nữ</t>
+  </si>
+  <si>
+    <t>Kinh tế - xã hội XHCN</t>
+  </si>
+  <si>
+    <t>Nghĩa vụ</t>
+  </si>
+  <si>
+    <t>Trách nhiệm</t>
+  </si>
+  <si>
+    <t>Quyền lợi</t>
+  </si>
+  <si>
+    <t>Nhu cầu</t>
+  </si>
+  <si>
+    <t>Điền vào chỗ trống: “Nếu nghĩa vụ của vợ và chồng là phải thương yêu nhau thì ….....của những kẻ yêu nhau há chẳng phải là kết hôn với nhau và không được kết hôn với người khác”.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,6 +327,54 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF090909"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,20 +403,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -393,94 +729,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C117" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
